--- a/biology/Botanique/Château_de_Quintigny/Château_de_Quintigny.xlsx
+++ b/biology/Botanique/Château_de_Quintigny/Château_de_Quintigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Quintigny</t>
+          <t>Château_de_Quintigny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le château de Quintigny est un château de style maison forte médiévale, de l'ancienne seigneurie de Quintigny du XIIIe siècle, dans le vignoble du Jura, dans le Jura en Bourgogne-Franche-Comté. Actuel domaine viticole privé, il est inscrit aux monuments historiques depuis le 15 avril 1987[1].
+Le château de Quintigny est un château de style maison forte médiévale, de l'ancienne seigneurie de Quintigny du XIIIe siècle, dans le vignoble du Jura, dans le Jura en Bourgogne-Franche-Comté. Actuel domaine viticole privé, il est inscrit aux monuments historiques depuis le 15 avril 1987.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Quintigny</t>
+          <t>Château_de_Quintigny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette ancienne maison forte de seigneurie, vassale de la seigneurie de L'Étoile voisine, est construite à 3 km au nord-ouest de L'Étoile, et 9 km au nord-est de Lons-le-Saunier. Les plus anciennes traces écrites retrouvées à ce jour, du village et du château, datent de 1290 et de 1358.
 Le château se compose d'une cour centrale ouverte sur le vignoble, bordée sur trois côtés, d'un logis seigneurial avec portail voûté surmonté de deux tourelles en encorbellement, d'une chapelle, et de dépendances agricoles..., sur un ancien domaine de 7 hectares, avec domaine forestier, vignoble, jardin potager, verger, élevage de bétail...
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Quintigny</t>
+          <t>Château_de_Quintigny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Liste de quelques seigneurs de Quintigny [2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jean de Jauche, dit Bouton, chevalier, seigneur de Saligny, époux de Jeanne de Champagne
 Huguenin Bouton, écuyer, fils aîné du précédent, seigneur de Quintigny, sans postérité
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Quintigny</t>
+          <t>Château_de_Quintigny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,6 +600,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
